--- a/src/test/java/resources/Country.xlsx
+++ b/src/test/java/resources/Country.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -90,12 +90,16 @@
   </si>
   <si>
     <t>TOKIO</t>
+  </si>
+  <si>
+    <t>POPULATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -415,8 +419,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -426,6 +430,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -434,6 +441,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="n">
+        <v>150000.0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -442,6 +452,9 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="n">
+        <v>250000.0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -449,6 +462,9 @@
       </c>
       <c r="B4" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>540000.0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
